--- a/src/ExcelsiorClosedXml.Tests/Headings.Fluent.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Headings.Fluent.verified.xlsx
@@ -449,7 +449,7 @@
     <x:col min="7" max="7" width="11.424911" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7">
+    <x:row r="1" spans="1:7" ht="14.25" customHeight="1">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -472,7 +472,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:7">
+    <x:row r="2" spans="1:7" ht="14.25" customHeight="1">
       <x:c r="A2" s="1">
         <x:v>1</x:v>
       </x:c>
@@ -495,7 +495,7 @@
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:7">
+    <x:row r="3" spans="1:7" ht="14.25" customHeight="1">
       <x:c r="A3" s="1">
         <x:v>2</x:v>
       </x:c>
@@ -518,7 +518,7 @@
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:7">
+    <x:row r="4" spans="1:7" ht="14.25" customHeight="1">
       <x:c r="A4" s="1">
         <x:v>3</x:v>
       </x:c>
@@ -541,7 +541,7 @@
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:7">
+    <x:row r="5" spans="1:7" ht="14.25" customHeight="1">
       <x:c r="A5" s="1">
         <x:v>4</x:v>
       </x:c>

--- a/src/ExcelsiorClosedXml.Tests/Headings.Fluent.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Headings.Fluent.verified.xlsx
@@ -440,13 +440,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="16.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="19.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="21.996339" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="17.424911" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.567768" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.424911" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="18.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="20.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.710625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.710625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.710625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="10.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="14.25" customHeight="1">
